--- a/build/classes/Data/WolfInn Tables.xlsx
+++ b/build/classes/Data/WolfInn Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCSU\Sem II\DBMS\WolfInn-DatabaseProject-CSC540\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\DBMS_WolfInn\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F467015-0C95-43B7-A2C8-CDD3C83F5205}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="874" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="874" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,18 @@
     <sheet name="RoomTypes" sheetId="4" r:id="rId4"/>
     <sheet name="Rooms" sheetId="5" r:id="rId5"/>
     <sheet name="Staffs" sheetId="6" r:id="rId6"/>
-    <sheet name="StaffTypes" sheetId="7" r:id="rId7"/>
-    <sheet name="Customers" sheetId="8" r:id="rId8"/>
-    <sheet name="CheckIns" sheetId="9" r:id="rId9"/>
-    <sheet name="Services" sheetId="10" r:id="rId10"/>
-    <sheet name="ServiceProvides" sheetId="11" r:id="rId11"/>
-    <sheet name="PaymentMethods" sheetId="12" r:id="rId12"/>
-    <sheet name="Bills" sheetId="13" r:id="rId13"/>
-    <sheet name="ServiceRecords" sheetId="14" r:id="rId14"/>
-    <sheet name="PresidentialRoomServing" sheetId="15" r:id="rId15"/>
-    <sheet name="PresidentialCatering" sheetId="16" r:id="rId16"/>
-    <sheet name="Serves" sheetId="17" r:id="rId17"/>
+    <sheet name="Departments" sheetId="18" r:id="rId7"/>
+    <sheet name="StaffTypes" sheetId="7" r:id="rId8"/>
+    <sheet name="Customers" sheetId="8" r:id="rId9"/>
+    <sheet name="CheckIns" sheetId="9" r:id="rId10"/>
+    <sheet name="Services" sheetId="10" r:id="rId11"/>
+    <sheet name="ServiceProvides" sheetId="11" r:id="rId12"/>
+    <sheet name="PaymentMethods" sheetId="12" r:id="rId13"/>
+    <sheet name="Bills" sheetId="13" r:id="rId14"/>
+    <sheet name="ServiceRecords" sheetId="14" r:id="rId15"/>
+    <sheet name="PresidentialRoomServing" sheetId="15" r:id="rId16"/>
+    <sheet name="PresidentialCatering" sheetId="16" r:id="rId17"/>
+    <sheet name="Serves" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
   <si>
     <t>Hilton Inn</t>
   </si>
@@ -376,12 +378,15 @@
   </si>
   <si>
     <t>101 Mahatma St</t>
+  </si>
+  <si>
+    <t>Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -714,29 +719,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -747,31 +752,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>100</v>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7">
+        <v>43121.541666666664</v>
+      </c>
+      <c r="F1" s="7">
+        <v>43011.416666666664</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43009.395833333336</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43069.114583333336</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43157.479166666664</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43121.541666666664</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43147.520833333336</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43157.520833333336</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43157.479166666664</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43169.041666666664</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -780,501 +963,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1283,35 +996,501 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>101</v>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
       </c>
       <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,21 +1499,58 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1366,7 +1582,7 @@
         <v>27606</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -1395,7 +1611,7 @@
         <v>82456</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1424,7 +1640,7 @@
         <v>87984</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1456,7 +1672,7 @@
         <v>39001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1468,7 +1684,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1478,7 +1694,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1494,20 +1710,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1524,7 +1740,7 @@
         <v>43009.4375</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1541,7 +1757,7 @@
         <v>43009.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1558,7 +1774,7 @@
         <v>43009.479166666664</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1575,7 +1791,7 @@
         <v>43069.197916666664</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1592,7 +1808,7 @@
         <v>43095.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1609,7 +1825,7 @@
         <v>43094.875</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1626,7 +1842,7 @@
         <v>43095.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1643,7 +1859,7 @@
         <v>43147.540972222225</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1660,7 +1876,7 @@
         <v>43148.520833333336</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1677,7 +1893,7 @@
         <v>43149.520833333336</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1700,15 +1916,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>6</v>
       </c>
@@ -1716,7 +1932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -1724,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -1732,57 +1948,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1791,16 +1962,61 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1808,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -1816,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1824,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1832,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1840,7 +2056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1848,7 +2064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1856,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1864,7 +2080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -1872,7 +2088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -1880,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -1894,14 +2110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1939,14 +2155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +2179,7 @@
         <v>5708008225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2196,7 @@
         <v>9879592260</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +2213,7 @@
         <v>9601558284</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2230,7 @@
         <v>7895313435</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2035,29 +2251,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2068,14 +2284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -2092,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -2109,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -2126,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2143,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2160,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2177,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2194,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2211,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2228,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2245,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -2262,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2279,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2296,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -2313,7 +2529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -2330,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -2353,592 +2569,660 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>34809</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>9196657073</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4">
-        <v>1</v>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="I1" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4">
         <v>27606</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>33151</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>6692345768</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
       <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
         <v>46784</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>33112</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>9841231231</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
       <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
         <v>35879</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>27744</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8768768769</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
       <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>56783</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>34242</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>9876543210</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
       <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
         <v>22758</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>34174</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4561920384</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
       <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>12345</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>8594629673</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
       <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>56789</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>5679725958</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
       <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
         <v>23845</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>33279</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>9487972856</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
       <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
         <v>93569</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>8663859473</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="4">
-        <v>4</v>
-      </c>
       <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
         <v>86737</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
         <v>36849</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7465532894</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
       <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
         <v>74768</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>36526</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
       <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
         <v>84478</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>35114</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5296050089</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
       <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
         <v>23578</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>29474</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7000045678</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="4">
-        <v>4</v>
-      </c>
       <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4">
         <v>46679</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>32704</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>8236700123</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
       <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
         <v>83367</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
       <c r="B16" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>25833</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="4">
-        <v>3</v>
-      </c>
       <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
         <v>73346</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
       <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
         <v>53412</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>33240</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>9199198823</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="4">
-        <v>4</v>
-      </c>
       <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
         <v>64578</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>29482</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>9752342256</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
       <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
         <v>88465</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>25808</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>8084569324</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="4">
-        <v>4</v>
-      </c>
       <c r="I20" s="4">
+        <v>4</v>
+      </c>
+      <c r="J20" s="4">
         <v>75463</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>34767</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>9190007707</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
       <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
         <v>99687</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2946,30 +3230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B4294-2828-4392-839F-0E86688EEF58}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2979,112 +3255,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="5">
-        <v>28048</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="5">
-        <v>29342</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4557824577</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5">
-        <v>34980</v>
-      </c>
-      <c r="D3" s="4">
-        <v>9601558284</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="4">
-        <v>9198457245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5">
-        <v>31048</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9919465745</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9975468795</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3093,209 +3288,112 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7">
-        <v>43121.541666666664</v>
-      </c>
-      <c r="F1" s="7">
-        <v>43011.416666666664</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5">
+        <v>28048</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5">
+        <v>29342</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7">
-        <v>43009.395833333336</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
+        <v>4557824577</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5">
+        <v>34980</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43069.114583333336</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
+        <v>9601558284</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="4">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43157.479166666664</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43121.541666666664</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
+        <v>9198457245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5">
+        <v>31048</v>
       </c>
       <c r="D6" s="4">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43147.520833333336</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
+        <v>9919465745</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="4">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>43157.520833333336</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>43157.479166666664</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>43169.041666666664</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4">
-        <v>1</v>
+        <v>9975468795</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
